--- a/ScrabbleBoardLayout.xlsx
+++ b/ScrabbleBoardLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\MASTER\UniversityofTwente\PreMaster\PreMasterQ2\Programming\Project\Scrabble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73A9BF95-7131-4D0E-BFAD-E38D6C757E4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BCAC12-1361-4383-AC55-2E0B37AE0CC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{734D654A-568C-497E-B9DD-81E14E59DC01}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="4">
   <si>
     <t>3W</t>
   </si>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,13 +51,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8F8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCF9FFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -87,12 +119,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -101,6 +145,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCF9FFF"/>
+      <color rgb="FFFF8F8F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -411,391 +461,270 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE79C296-1516-4C8F-8227-B4D3E5891C21}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="4.6640625" style="2" customWidth="1"/>
+    <col min="1" max="15" width="4.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ScrabbleBoardLayout.xlsx
+++ b/ScrabbleBoardLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\MASTER\UniversityofTwente\PreMaster\PreMasterQ2\Programming\Project\Scrabble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BCAC12-1361-4383-AC55-2E0B37AE0CC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9439A945-63C9-4990-89ED-47D88A6FA304}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{734D654A-568C-497E-B9DD-81E14E59DC01}"/>
   </bookViews>
@@ -25,18 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="4">
-  <si>
-    <t>3W</t>
-  </si>
-  <si>
-    <t>2W</t>
-  </si>
-  <si>
-    <t>3L</t>
-  </si>
-  <si>
-    <t>2L</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -465,7 +495,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="15" width="3.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -561,7 +591,9 @@
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="6"/>
       <c r="K6" s="3"/>
@@ -578,7 +610,9 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -593,10 +627,18 @@
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="4"/>
@@ -612,9 +654,15 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
@@ -627,11 +675,21 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -643,9 +701,15 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -660,7 +724,9 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
@@ -677,7 +743,9 @@
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
@@ -694,7 +762,9 @@
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -707,11 +777,21 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="2"/>

--- a/ScrabbleBoardLayout.xlsx
+++ b/ScrabbleBoardLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\MASTER\UniversityofTwente\PreMaster\PreMasterQ2\Programming\Project\Scrabble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9439A945-63C9-4990-89ED-47D88A6FA304}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E29790A-55C8-4531-A117-A077973D2166}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{734D654A-568C-497E-B9DD-81E14E59DC01}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>D</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -741,16 +747,30 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="5"/>
